--- a/TemplateExportCompilatiFinora.xlsx
+++ b/TemplateExportCompilatiFinora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicolaCardi/Cartelle/localhost/waldorf/swapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477ABACF-E3A6-6741-82E0-3EB8290D0C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17A4209-3445-F245-8D68-5405E3A3ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27180" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27180" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnagraficheComplete" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>2019-20</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Isc. Completa</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +425,9 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,6 +459,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,13 +771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ4"/>
+  <dimension ref="A1:BR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="BG5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="AL5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BQ4" sqref="BQ4"/>
+      <selection pane="bottomRight" activeCell="BF1" sqref="BF1:BF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,99 +822,100 @@
     <col min="41" max="41" width="10.5" style="2" customWidth="1"/>
     <col min="42" max="42" width="30.5" customWidth="1"/>
     <col min="43" max="43" width="3.6640625" customWidth="1"/>
-    <col min="44" max="44" width="10.5" customWidth="1"/>
-    <col min="45" max="45" width="20.5" customWidth="1"/>
-    <col min="46" max="46" width="30.6640625" customWidth="1"/>
-    <col min="47" max="47" width="21.5" customWidth="1"/>
-    <col min="48" max="48" width="6.33203125" customWidth="1"/>
-    <col min="49" max="49" width="5" customWidth="1"/>
-    <col min="50" max="50" width="9.5" customWidth="1"/>
-    <col min="52" max="52" width="33.5" customWidth="1"/>
-    <col min="53" max="53" width="10.5" style="2" customWidth="1"/>
-    <col min="54" max="54" width="24.5" customWidth="1"/>
-    <col min="55" max="55" width="5" customWidth="1"/>
-    <col min="56" max="56" width="10.6640625" customWidth="1"/>
-    <col min="57" max="57" width="20.1640625" customWidth="1"/>
-    <col min="58" max="58" width="30.6640625" customWidth="1"/>
-    <col min="59" max="59" width="21.5" customWidth="1"/>
-    <col min="60" max="61" width="6.33203125" customWidth="1"/>
-    <col min="62" max="62" width="9.5" customWidth="1"/>
-    <col min="64" max="64" width="33.5" customWidth="1"/>
-    <col min="65" max="65" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14" customWidth="1"/>
-    <col min="68" max="68" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.5" customWidth="1"/>
+    <col min="46" max="46" width="20.5" customWidth="1"/>
+    <col min="47" max="47" width="30.6640625" customWidth="1"/>
+    <col min="48" max="48" width="21.5" customWidth="1"/>
+    <col min="49" max="49" width="6.33203125" customWidth="1"/>
+    <col min="50" max="50" width="5" customWidth="1"/>
+    <col min="51" max="51" width="9.5" customWidth="1"/>
+    <col min="53" max="53" width="33.5" customWidth="1"/>
+    <col min="54" max="54" width="10.5" style="2" customWidth="1"/>
+    <col min="55" max="55" width="24.5" customWidth="1"/>
+    <col min="56" max="56" width="5" customWidth="1"/>
+    <col min="57" max="57" width="10.6640625" customWidth="1"/>
+    <col min="58" max="58" width="20.1640625" customWidth="1"/>
+    <col min="59" max="59" width="30.6640625" customWidth="1"/>
+    <col min="60" max="60" width="21.5" customWidth="1"/>
+    <col min="61" max="62" width="6.33203125" customWidth="1"/>
+    <col min="63" max="63" width="9.5" customWidth="1"/>
+    <col min="65" max="65" width="33.5" customWidth="1"/>
+    <col min="66" max="66" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14" customWidth="1"/>
+    <col min="69" max="69" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="22" t="s">
+    <row r="2" spans="1:70" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="K2" s="22" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="K2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="R2" s="22" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="R2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="22" t="s">
+      <c r="S2" s="24"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="22" t="s">
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="24"/>
-      <c r="AO2" s="25" t="s">
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="25"/>
+      <c r="AO2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="27"/>
-      <c r="AT2" s="17" t="s">
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="17"/>
+      <c r="AU2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="BA2" s="18" t="s">
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="BB2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BF2" s="19" t="s">
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BG2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
       <c r="BJ2" s="21"/>
-      <c r="BM2" s="4" t="s">
+      <c r="BK2" s="22"/>
+      <c r="BN2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BO2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1036,87 +1049,90 @@
         <v>17</v>
       </c>
       <c r="AS4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AU4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AU4" s="13" t="s">
+      <c r="AV4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="13" t="s">
+      <c r="AW4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="AX4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="AY4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="AZ4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AZ4" s="13" t="s">
+      <c r="BA4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="BA4" s="16" t="s">
+      <c r="BB4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BB4" s="14" t="s">
+      <c r="BC4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="BC4" s="14" t="s">
+      <c r="BD4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BD4" s="14" t="s">
+      <c r="BE4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="BE4" s="14" t="s">
+      <c r="BF4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="BF4" s="14" t="s">
+      <c r="BG4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="BG4" s="14" t="s">
+      <c r="BH4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="BH4" s="14" t="s">
+      <c r="BI4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="BI4" s="14" t="s">
+      <c r="BJ4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BJ4" s="14" t="s">
+      <c r="BK4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="14" t="s">
+      <c r="BL4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="BL4" s="14" t="s">
+      <c r="BM4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="BM4" s="10" t="s">
+      <c r="BN4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BN4" s="10" t="s">
+      <c r="BO4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BO4" s="10" t="s">
+      <c r="BP4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BP4" s="10" t="s">
+      <c r="BQ4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BQ4" s="10" t="s">
+      <c r="BR4" s="10" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="9">
-    <mergeCell ref="AT2:AX2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="R2:T2"/>
@@ -1131,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1156,74 +1172,76 @@
     <col min="15" max="15" width="10.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="30.5" customWidth="1"/>
     <col min="17" max="17" width="3.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="20.5" customWidth="1"/>
-    <col min="20" max="20" width="30.6640625" customWidth="1"/>
-    <col min="21" max="21" width="21.5" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" customWidth="1"/>
-    <col min="23" max="23" width="3.5" customWidth="1"/>
-    <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="26" max="26" width="33.5" customWidth="1"/>
-    <col min="27" max="27" width="10.5" style="2" customWidth="1"/>
-    <col min="28" max="28" width="24.5" customWidth="1"/>
-    <col min="29" max="29" width="3.83203125" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" customWidth="1"/>
-    <col min="31" max="31" width="20.1640625" customWidth="1"/>
-    <col min="32" max="32" width="30.6640625" customWidth="1"/>
-    <col min="33" max="33" width="21.5" customWidth="1"/>
-    <col min="34" max="34" width="6.33203125" customWidth="1"/>
-    <col min="35" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="9.5" customWidth="1"/>
-    <col min="38" max="38" width="33.5" customWidth="1"/>
-    <col min="39" max="42" width="15.5" customWidth="1"/>
+    <col min="18" max="19" width="10.5" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" customWidth="1"/>
+    <col min="22" max="22" width="21.5" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1"/>
+    <col min="25" max="25" width="9.5" customWidth="1"/>
+    <col min="27" max="27" width="33.5" customWidth="1"/>
+    <col min="28" max="28" width="10.5" style="2" customWidth="1"/>
+    <col min="29" max="29" width="24.5" customWidth="1"/>
+    <col min="30" max="30" width="3.83203125" customWidth="1"/>
+    <col min="31" max="32" width="10.6640625" customWidth="1"/>
+    <col min="33" max="33" width="20.1640625" customWidth="1"/>
+    <col min="34" max="34" width="30.6640625" customWidth="1"/>
+    <col min="35" max="35" width="21.5" customWidth="1"/>
+    <col min="36" max="36" width="6.33203125" customWidth="1"/>
+    <col min="37" max="37" width="3.5" customWidth="1"/>
+    <col min="38" max="38" width="9.5" customWidth="1"/>
+    <col min="40" max="40" width="33.5" customWidth="1"/>
+    <col min="41" max="44" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
-      <c r="O2" s="25" t="s">
+    <row r="2" spans="1:44" s="3" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="T2" s="17" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+      <c r="U2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="AA2" s="18" t="s">
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="AB2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AF2" s="19" t="s">
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="30"/>
+      <c r="AH2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
+      <c r="AI2" s="21"/>
       <c r="AJ2" s="21"/>
-      <c r="AN2" s="4" t="s">
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="22"/>
+      <c r="AP2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="AN3" s="3"/>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP3" s="3"/>
     </row>
-    <row r="4" spans="1:42" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1279,84 +1297,90 @@
         <v>17</v>
       </c>
       <c r="S4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AD4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AF4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AM4" s="10" t="s">
+      <c r="AO4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" s="10" t="s">
+      <c r="AP4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="10" t="s">
+      <c r="AR4" s="10" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AH2:AL2"/>
     <mergeCell ref="O2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
